--- a/doc/template/UnitFolder/Unit_interface.xlsx
+++ b/doc/template/UnitFolder/Unit_interface.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\doc\template\UnitFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5E9A87-A893-407E-972F-3E67FE9810F4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA9CF5F-8ED6-4D1D-96DE-BC1B4FE3FCE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Typedef</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>DefaultValue</t>
@@ -71,6 +68,9 @@
   <si>
     <t>InitialValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -458,23 +458,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.75" style="4" customWidth="1"/>
     <col min="2" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="20.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="59.875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="20.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="59.875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,13 +488,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -509,7 +513,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -538,10 +542,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -562,7 +566,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,10 +594,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -613,7 +617,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -641,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -721,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C9B753-5B04-4B74-9EE0-9C598EFE9C9F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
